--- a/basic/sample.xlsx
+++ b/basic/sample.xlsx
@@ -1,16 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\open_py_xl\basic\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C246BE-5A1A-4663-BEF3-CFA66662F7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GAJI" sheetId="1" r:id="rId1"/>
     <sheet name="DATA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -181,14 +199,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,367 +211,30 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -582,262 +257,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -846,72 +279,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{1DBD8C3F-2801-4A5A-BCF3-8F7E9E0784F5}"/>
   </tableStyles>
@@ -919,8 +306,51 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1228,32 +658,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.8571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5714285714286" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.2857142857143" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="2"/>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1">
       <c r="A2" s="5">
         <v>912071</v>
       </c>
@@ -1293,7 +724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="7">
         <v>448872</v>
@@ -1311,7 +742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="19.5" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1">
       <c r="A4" s="7">
         <v>495605.67</v>
       </c>
@@ -1331,7 +762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1">
       <c r="A5" s="7">
         <v>799464</v>
       </c>
@@ -1342,7 +773,7 @@
         <v>1013881</v>
       </c>
       <c r="D5" s="7">
-        <v>159892.8</v>
+        <v>159892.79999999999</v>
       </c>
       <c r="E5" s="5">
         <v>853988.2</v>
@@ -1351,7 +782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="19.5" customHeight="1" spans="1:5">
+    <row r="6" spans="1:6" ht="19.5" customHeight="1">
       <c r="A6" s="7">
         <v>64929</v>
       </c>
@@ -1368,7 +799,7 @@
         <v>376913.2</v>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1" spans="1:5">
+    <row r="7" spans="1:6" ht="19.5" customHeight="1">
       <c r="A7" s="7">
         <v>959847</v>
       </c>
@@ -1385,7 +816,7 @@
         <v>911990.6</v>
       </c>
     </row>
-    <row r="8" ht="19.5" customHeight="1" spans="1:6">
+    <row r="8" spans="1:6" ht="19.5" customHeight="1">
       <c r="A8" s="7">
         <v>805001</v>
       </c>
@@ -1396,7 +827,7 @@
         <v>1219397</v>
       </c>
       <c r="D8" s="7">
-        <v>161000.2</v>
+        <v>161000.20000000001</v>
       </c>
       <c r="E8" s="5">
         <v>1058396.8</v>
@@ -1405,7 +836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="19.5" customHeight="1" spans="1:5">
+    <row r="9" spans="1:6" ht="19.5" customHeight="1">
       <c r="A9" s="7">
         <v>923363</v>
       </c>
@@ -1422,7 +853,7 @@
         <v>1009744.4</v>
       </c>
     </row>
-    <row r="10" ht="19.5" customHeight="1" spans="1:5">
+    <row r="10" spans="1:6" ht="19.5" customHeight="1">
       <c r="A10" s="7">
         <v>282580</v>
       </c>
@@ -1433,13 +864,16 @@
         <v>452043</v>
       </c>
       <c r="D10" s="7">
-        <v>56516</v>
+        <v>-0.79</v>
       </c>
       <c r="E10" s="5">
         <v>395527</v>
       </c>
-    </row>
-    <row r="11" ht="19.5" customHeight="1" spans="1:5">
+      <c r="F10" s="13">
+        <v>-0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" customHeight="1">
       <c r="A11" s="7">
         <v>96122</v>
       </c>
@@ -1450,13 +884,13 @@
         <v>586753</v>
       </c>
       <c r="D11" s="7">
-        <v>19224.4</v>
+        <v>19224.400000000001</v>
       </c>
       <c r="E11" s="5">
         <v>567528.6</v>
       </c>
     </row>
-    <row r="12" ht="19.5" customHeight="1" spans="1:6">
+    <row r="12" spans="1:6" ht="19.5" customHeight="1">
       <c r="A12" s="7">
         <v>798094</v>
       </c>
@@ -1467,7 +901,7 @@
         <v>1119856</v>
       </c>
       <c r="D12" s="7">
-        <v>159618.8</v>
+        <v>159618.79999999999</v>
       </c>
       <c r="E12" s="5">
         <v>960237.2</v>
@@ -1476,7 +910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="19.5" customHeight="1" spans="1:5">
+    <row r="13" spans="1:6" ht="19.5" customHeight="1">
       <c r="A13" s="7">
         <v>200222</v>
       </c>
@@ -1487,13 +921,13 @@
         <v>674466</v>
       </c>
       <c r="D13" s="7">
-        <v>40044.4</v>
+        <v>40044.400000000001</v>
       </c>
       <c r="E13" s="5">
         <v>634421.6</v>
       </c>
     </row>
-    <row r="14" ht="19.5" customHeight="1" spans="1:6">
+    <row r="14" spans="1:6" ht="19.5" customHeight="1">
       <c r="A14" s="7">
         <v>65407</v>
       </c>
@@ -1513,7 +947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="19.5" customHeight="1" spans="1:6">
+    <row r="15" spans="1:6" ht="19.5" customHeight="1">
       <c r="A15" s="7">
         <v>686073</v>
       </c>
@@ -1533,7 +967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" ht="19.5" customHeight="1" spans="1:6">
+    <row r="16" spans="1:6" ht="19.5" customHeight="1">
       <c r="A16" s="5">
         <v>16216</v>
       </c>
@@ -1547,13 +981,13 @@
         <v>3243.2</v>
       </c>
       <c r="E16" s="5">
-        <v>132147.8</v>
+        <v>132147.79999999999</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" ht="19.5" customHeight="1" spans="1:6">
+    <row r="17" spans="1:6" ht="19.5" customHeight="1">
       <c r="A17" s="7">
         <v>875325</v>
       </c>
@@ -1573,7 +1007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" ht="19.5" customHeight="1" spans="1:6">
+    <row r="18" spans="1:6" ht="19.5" customHeight="1">
       <c r="A18" s="7">
         <v>465591</v>
       </c>
@@ -1593,7 +1027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" ht="19.5" customHeight="1" spans="1:6">
+    <row r="19" spans="1:6" ht="19.5" customHeight="1">
       <c r="A19" s="7">
         <v>576575</v>
       </c>
@@ -1611,7 +1045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" ht="19.5" customHeight="1" spans="1:6">
+    <row r="20" spans="1:6" ht="19.5" customHeight="1">
       <c r="A20" s="7">
         <v>163642</v>
       </c>
@@ -1622,7 +1056,7 @@
         <v>-110855</v>
       </c>
       <c r="D20" s="7">
-        <v>32728.4</v>
+        <v>32728.400000000001</v>
       </c>
       <c r="E20" s="5">
         <v>-143583.4</v>
@@ -1631,7 +1065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" ht="19.5" customHeight="1" spans="1:6">
+    <row r="21" spans="1:6" ht="19.5" customHeight="1">
       <c r="A21" s="7">
         <v>925970</v>
       </c>
@@ -1651,7 +1085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" ht="19.5" customHeight="1" spans="1:6">
+    <row r="22" spans="1:6" ht="19.5" customHeight="1">
       <c r="A22" s="7">
         <v>959847</v>
       </c>
@@ -1671,7 +1105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" ht="19.5" customHeight="1" spans="1:6">
+    <row r="23" spans="1:6" ht="19.5" customHeight="1">
       <c r="A23" s="7">
         <v>138130</v>
       </c>
@@ -1691,7 +1125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" ht="19.5" customHeight="1" spans="1:5">
+    <row r="24" spans="1:6" ht="19.5" customHeight="1">
       <c r="A24" s="7">
         <v>678319</v>
       </c>
@@ -1702,13 +1136,13 @@
         <v>678319</v>
       </c>
       <c r="D24" s="7">
-        <v>135663.8</v>
+        <v>135663.79999999999</v>
       </c>
       <c r="E24" s="5">
-        <v>542655.2</v>
-      </c>
-    </row>
-    <row r="25" ht="19.5" customHeight="1" spans="1:6">
+        <v>542655.19999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19.5" customHeight="1">
       <c r="A25" s="10" t="s">
         <v>17</v>
       </c>
@@ -1722,13 +1156,13 @@
         <v>14804.2</v>
       </c>
       <c r="E25" s="5">
-        <v>91748.8</v>
+        <v>91748.800000000003</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" ht="19.5" customHeight="1" spans="1:6">
+    <row r="26" spans="1:6" ht="19.5" customHeight="1">
       <c r="A26" s="7">
         <v>388249</v>
       </c>
@@ -1748,7 +1182,7 @@
         <v>333356</v>
       </c>
     </row>
-    <row r="27" ht="19.5" customHeight="1" spans="1:6">
+    <row r="27" spans="1:6" ht="19.5" customHeight="1">
       <c r="A27" s="7">
         <v>492184</v>
       </c>
@@ -1759,16 +1193,16 @@
         <v>492184</v>
       </c>
       <c r="D27" s="7">
-        <v>98436.8</v>
+        <v>98436.800000000003</v>
       </c>
       <c r="E27" s="5">
-        <v>393747.2</v>
+        <v>393747.20000000001</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" ht="19.5" customHeight="1" spans="1:6">
+    <row r="28" spans="1:6" ht="19.5" customHeight="1">
       <c r="A28" s="7">
         <v>611450</v>
       </c>
@@ -1788,7 +1222,7 @@
         <v>8118989234</v>
       </c>
     </row>
-    <row r="29" ht="19.5" customHeight="1" spans="1:6">
+    <row r="29" spans="1:6" ht="19.5" customHeight="1">
       <c r="A29" s="10" t="s">
         <v>17</v>
       </c>
@@ -1808,7 +1242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" ht="19.5" customHeight="1" spans="1:6">
+    <row r="30" spans="1:6" ht="19.5" customHeight="1">
       <c r="A30" s="7">
         <v>967422</v>
       </c>
@@ -1822,13 +1256,13 @@
         <v>193484.4</v>
       </c>
       <c r="E30" s="5">
-        <v>1140911.6</v>
+        <v>1140911.6000000001</v>
       </c>
       <c r="F30" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" ht="19.5" customHeight="1" spans="1:6">
+    <row r="31" spans="1:6" ht="19.5" customHeight="1">
       <c r="A31" s="7">
         <v>889385</v>
       </c>
@@ -1848,7 +1282,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" ht="19.5" customHeight="1" spans="1:6">
+    <row r="32" spans="1:6" ht="19.5" customHeight="1">
       <c r="A32" s="7">
         <v>0</v>
       </c>
@@ -1868,7 +1302,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" ht="19.5" customHeight="1" spans="1:6">
+    <row r="33" spans="1:6" ht="19.5" customHeight="1">
       <c r="A33" s="7">
         <v>326224</v>
       </c>
@@ -1879,16 +1313,16 @@
         <v>694448</v>
       </c>
       <c r="D33" s="7">
-        <v>65244.8</v>
+        <v>65244.800000000003</v>
       </c>
       <c r="E33" s="5">
-        <v>629203.2</v>
+        <v>629203.19999999995</v>
       </c>
       <c r="F33" s="2" t="e">
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="34" ht="19.5" customHeight="1" spans="1:6">
+    <row r="34" spans="1:6" ht="19.5" customHeight="1">
       <c r="A34" s="7">
         <v>519767</v>
       </c>
@@ -1908,7 +1342,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" ht="19.5" customHeight="1" spans="1:6">
+    <row r="35" spans="1:6" ht="19.5" customHeight="1">
       <c r="A35" s="7">
         <v>595232</v>
       </c>
@@ -1919,7 +1353,7 @@
         <v>759147</v>
       </c>
       <c r="D35" s="7">
-        <v>119046.4</v>
+        <v>119046.39999999999</v>
       </c>
       <c r="E35" s="5">
         <v>640100.6</v>
@@ -1928,7 +1362,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="36" ht="19.5" customHeight="1" spans="1:6">
+    <row r="36" spans="1:6" ht="19.5" customHeight="1">
       <c r="A36" s="7">
         <v>350758</v>
       </c>
@@ -1939,7 +1373,7 @@
         <v>518954</v>
       </c>
       <c r="D36" s="7">
-        <v>70151.6</v>
+        <v>70151.600000000006</v>
       </c>
       <c r="E36" s="5">
         <v>448802.4</v>
@@ -1948,7 +1382,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" ht="19.5" customHeight="1" spans="1:6">
+    <row r="37" spans="1:6" ht="19.5" customHeight="1">
       <c r="A37" s="7">
         <v>800974</v>
       </c>
@@ -1966,7 +1400,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" ht="19.5" customHeight="1" spans="1:6">
+    <row r="38" spans="1:6" ht="19.5" customHeight="1">
       <c r="A38" s="7">
         <v>768575</v>
       </c>
@@ -1982,11 +1416,11 @@
       <c r="E38" s="5">
         <v>750616</v>
       </c>
-      <c r="F38" s="2" vm="1" t="e">
+      <c r="F38" s="2" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" ht="19.5" customHeight="1" spans="1:6">
+    <row r="39" spans="1:6" ht="19.5" customHeight="1">
       <c r="A39" s="7">
         <v>993511</v>
       </c>
@@ -2002,11 +1436,11 @@
       <c r="E39" s="5">
         <v>1048222.8</v>
       </c>
-      <c r="F39" s="2" vm="2" t="e">
+      <c r="F39" s="2" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" ht="19.5" customHeight="1" spans="1:6">
+    <row r="40" spans="1:6" ht="19.5" customHeight="1">
       <c r="A40" s="7">
         <v>394973</v>
       </c>
@@ -2017,7 +1451,7 @@
         <v>780936</v>
       </c>
       <c r="D40" s="7">
-        <v>78994.6</v>
+        <v>78994.600000000006</v>
       </c>
       <c r="E40" s="5">
         <v>701941.4</v>
@@ -2026,7 +1460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" ht="19.5" customHeight="1" spans="1:6">
+    <row r="41" spans="1:6" ht="19.5" customHeight="1">
       <c r="A41" s="7">
         <v>692671</v>
       </c>
@@ -2037,7 +1471,7 @@
         <v>893477</v>
       </c>
       <c r="D41" s="7">
-        <v>138534.2</v>
+        <v>138534.20000000001</v>
       </c>
       <c r="E41" s="5">
         <v>754942.8</v>
@@ -2046,7 +1480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" ht="19.5" customHeight="1" spans="1:6">
+    <row r="42" spans="1:6" ht="19.5" customHeight="1">
       <c r="A42" s="7">
         <v>799107</v>
       </c>
@@ -2066,7 +1500,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="43" ht="19.5" customHeight="1" spans="1:5">
+    <row r="43" spans="1:6" ht="19.5" customHeight="1">
       <c r="A43" s="7">
         <v>959847</v>
       </c>
@@ -2083,7 +1517,7 @@
         <v>911990.6</v>
       </c>
     </row>
-    <row r="44" ht="19.5" customHeight="1" spans="1:5">
+    <row r="44" spans="1:6" ht="19.5" customHeight="1">
       <c r="A44" s="7">
         <v>990429</v>
       </c>
@@ -2100,7 +1534,7 @@
         <v>907038.2</v>
       </c>
     </row>
-    <row r="45" ht="19.5" customHeight="1" spans="1:6">
+    <row r="45" spans="1:6" ht="19.5" customHeight="1">
       <c r="A45" s="7">
         <v>-11011</v>
       </c>
@@ -2111,17 +1545,17 @@
         <v>163241</v>
       </c>
       <c r="D45" s="7">
-        <v>2202.2</v>
+        <v>2202.1999999999998</v>
       </c>
       <c r="E45" s="5">
-        <v>161038.8</v>
+        <v>161038.79999999999</v>
       </c>
       <c r="F45" s="2" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" ht="19.5" customHeight="1" spans="1:5">
+    <row r="46" spans="1:6" ht="19.5" customHeight="1">
       <c r="A46" s="7">
         <v>334146</v>
       </c>
@@ -2135,17 +1569,16 @@
         <v>66829.2</v>
       </c>
       <c r="E46" s="5">
-        <v>482924.8</v>
+        <v>482924.79999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2155,16 +1588,16 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.57142857142857" customWidth="1"/>
-    <col min="2" max="2" width="8.57142857142857" customWidth="1"/>
-    <col min="3" max="3" width="9.57142857142857" customWidth="1"/>
-    <col min="4" max="5" width="11.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="20.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2184,7 +1617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1">
       <c r="A2">
         <v>9056</v>
       </c>
@@ -2194,7 +1627,6 @@
       <c r="C2">
         <v>84695012</v>
       </c>
-      <c r="D2"/>
       <c r="E2">
         <v>7048799571</v>
       </c>
@@ -2202,7 +1634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1">
       <c r="A3">
         <v>7928</v>
       </c>
@@ -2222,7 +1654,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" ht="19.5" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1">
       <c r="A4">
         <v>6286</v>
       </c>
@@ -2242,7 +1674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1">
       <c r="A5">
         <v>2536</v>
       </c>
@@ -2262,7 +1694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="19.5" customHeight="1" spans="2:6">
+    <row r="6" spans="1:6" ht="19.5" customHeight="1">
       <c r="B6">
         <v>6654803</v>
       </c>
@@ -2279,7 +1711,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="19.5" customHeight="1">
       <c r="A7">
         <v>6029</v>
       </c>
@@ -2292,12 +1724,11 @@
       <c r="D7">
         <v>326212530</v>
       </c>
-      <c r="E7"/>
       <c r="F7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" ht="19.5" customHeight="1" spans="1:6">
+    <row r="8" spans="1:6" ht="19.5" customHeight="1">
       <c r="A8">
         <v>3988</v>
       </c>
@@ -2317,7 +1748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="19.5" customHeight="1" spans="1:6">
+    <row r="9" spans="1:6" ht="19.5" customHeight="1">
       <c r="A9">
         <v>2682</v>
       </c>
@@ -2337,7 +1768,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" ht="19.5" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="19.5" customHeight="1">
       <c r="A10">
         <v>8529</v>
       </c>
@@ -2357,7 +1788,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" ht="19.5" customHeight="1" spans="1:6">
+    <row r="11" spans="1:6" ht="19.5" customHeight="1">
       <c r="A11">
         <v>1376</v>
       </c>
@@ -2377,7 +1808,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" ht="19.5" customHeight="1" spans="1:6">
+    <row r="12" spans="1:6" ht="19.5" customHeight="1">
       <c r="A12">
         <v>1295</v>
       </c>
@@ -2397,7 +1828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="19.5" customHeight="1" spans="1:6">
+    <row r="13" spans="1:6" ht="19.5" customHeight="1">
       <c r="A13">
         <v>8845</v>
       </c>
@@ -2417,7 +1848,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" ht="19.5" customHeight="1" spans="1:6">
+    <row r="14" spans="1:6" ht="19.5" customHeight="1">
       <c r="A14">
         <v>2767</v>
       </c>
@@ -2437,7 +1868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="19.5" customHeight="1" spans="1:6">
+    <row r="15" spans="1:6" ht="19.5" customHeight="1">
       <c r="A15">
         <v>2909</v>
       </c>
@@ -2457,7 +1888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" ht="19.5" customHeight="1" spans="1:6">
+    <row r="16" spans="1:6" ht="19.5" customHeight="1">
       <c r="A16">
         <v>5666</v>
       </c>
@@ -2477,11 +1908,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" ht="19.5" customHeight="1" spans="1:6">
+    <row r="17" spans="1:6" ht="19.5" customHeight="1">
       <c r="A17">
         <v>6418</v>
       </c>
-      <c r="B17"/>
       <c r="C17">
         <v>76642087</v>
       </c>
@@ -2495,11 +1925,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" ht="19.5" customHeight="1" spans="1:6">
+    <row r="18" spans="1:6" ht="19.5" customHeight="1">
       <c r="A18">
         <v>4836</v>
       </c>
-      <c r="B18"/>
       <c r="C18">
         <v>72061957</v>
       </c>
@@ -2513,7 +1942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" ht="19.5" customHeight="1" spans="1:6">
+    <row r="19" spans="1:6" ht="19.5" customHeight="1">
       <c r="A19">
         <v>8495</v>
       </c>
@@ -2533,7 +1962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" ht="19.5" customHeight="1" spans="1:6">
+    <row r="20" spans="1:6" ht="19.5" customHeight="1">
       <c r="A20">
         <v>4843</v>
       </c>
@@ -2553,7 +1982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" ht="19.5" customHeight="1" spans="1:6">
+    <row r="21" spans="1:6" ht="19.5" customHeight="1">
       <c r="A21">
         <v>3520</v>
       </c>
@@ -2573,7 +2002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" ht="19.5" customHeight="1" spans="1:6">
+    <row r="22" spans="1:6" ht="19.5" customHeight="1">
       <c r="A22">
         <v>9629</v>
       </c>
@@ -2593,7 +2022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" ht="19.5" customHeight="1" spans="1:6">
+    <row r="23" spans="1:6" ht="19.5" customHeight="1">
       <c r="A23">
         <v>5590</v>
       </c>
@@ -2613,7 +2042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" ht="19.5" customHeight="1" spans="1:6">
+    <row r="24" spans="1:6" ht="19.5" customHeight="1">
       <c r="A24">
         <v>5055</v>
       </c>
@@ -2633,14 +2062,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" ht="18.75" customHeight="1" spans="1:6">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1">
       <c r="A25">
         <v>8751</v>
       </c>
       <c r="B25">
         <v>8397404</v>
       </c>
-      <c r="C25"/>
       <c r="D25">
         <v>756966311</v>
       </c>
@@ -2651,7 +2079,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" ht="18.75" customHeight="1" spans="1:6">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1">
       <c r="A26">
         <v>5614</v>
       </c>
@@ -2671,7 +2099,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" ht="18.75" customHeight="1" spans="1:6">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1">
       <c r="A27">
         <v>6467</v>
       </c>
@@ -2681,7 +2109,6 @@
       <c r="C27">
         <v>44921435</v>
       </c>
-      <c r="D27"/>
       <c r="E27">
         <v>9752098812</v>
       </c>
@@ -2689,7 +2116,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" ht="18.75" customHeight="1" spans="1:6">
+    <row r="28" spans="1:6" ht="18.75" customHeight="1">
       <c r="A28">
         <v>2779</v>
       </c>
@@ -2709,7 +2136,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" ht="18.75" customHeight="1" spans="1:6">
+    <row r="29" spans="1:6" ht="18.75" customHeight="1">
       <c r="A29">
         <v>5122</v>
       </c>
@@ -2729,7 +2156,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" ht="18.75" customHeight="1" spans="1:6">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1">
       <c r="A30">
         <v>9952</v>
       </c>
@@ -2749,7 +2176,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" ht="18.75" customHeight="1" spans="1:6">
+    <row r="31" spans="1:6" ht="18.75" customHeight="1">
       <c r="A31">
         <v>7399</v>
       </c>
@@ -2769,7 +2196,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" ht="18.75" customHeight="1" spans="1:6">
+    <row r="32" spans="1:6" ht="18.75" customHeight="1">
       <c r="A32">
         <v>7717</v>
       </c>
@@ -2789,7 +2216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" ht="18.75" customHeight="1" spans="2:6">
+    <row r="33" spans="1:6" ht="18.75" customHeight="1">
       <c r="B33">
         <v>5423004</v>
       </c>
@@ -2806,7 +2233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" ht="18.75" customHeight="1" spans="1:6">
+    <row r="34" spans="1:6" ht="18.75" customHeight="1">
       <c r="A34">
         <v>9277</v>
       </c>
@@ -2826,7 +2253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" ht="18.75" customHeight="1" spans="1:6">
+    <row r="35" spans="1:6" ht="18.75" customHeight="1">
       <c r="A35">
         <v>3339</v>
       </c>
@@ -2846,7 +2273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" ht="18.75" customHeight="1" spans="1:6">
+    <row r="36" spans="1:6" ht="18.75" customHeight="1">
       <c r="A36">
         <v>2779</v>
       </c>
@@ -2859,12 +2286,11 @@
       <c r="D36">
         <v>471199138</v>
       </c>
-      <c r="E36"/>
       <c r="F36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" ht="18.75" customHeight="1" spans="1:6">
+    <row r="37" spans="1:6" ht="18.75" customHeight="1">
       <c r="A37">
         <v>1827</v>
       </c>
@@ -2884,7 +2310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" ht="18.75" customHeight="1" spans="1:6">
+    <row r="38" spans="1:6" ht="18.75" customHeight="1">
       <c r="A38">
         <v>1208</v>
       </c>
@@ -2904,7 +2330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" ht="18.75" customHeight="1" spans="1:6">
+    <row r="39" spans="1:6" ht="18.75" customHeight="1">
       <c r="A39">
         <v>7052</v>
       </c>
@@ -2924,7 +2350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" ht="18.75" customHeight="1" spans="1:6">
+    <row r="40" spans="1:6" ht="18.75" customHeight="1">
       <c r="A40">
         <v>6091</v>
       </c>
@@ -2944,7 +2370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" ht="18.75" customHeight="1" spans="1:6">
+    <row r="41" spans="1:6" ht="18.75" customHeight="1">
       <c r="A41">
         <v>2159</v>
       </c>
@@ -2964,7 +2390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" ht="18.75" customHeight="1" spans="1:6">
+    <row r="42" spans="1:6" ht="18.75" customHeight="1">
       <c r="A42">
         <v>5083</v>
       </c>
@@ -2984,7 +2410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" ht="18.75" customHeight="1" spans="1:6">
+    <row r="43" spans="1:6" ht="18.75" customHeight="1">
       <c r="A43">
         <v>4635</v>
       </c>
@@ -3004,7 +2430,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" ht="18.75" customHeight="1" spans="1:6">
+    <row r="44" spans="1:6" ht="18.75" customHeight="1">
       <c r="A44">
         <v>2791</v>
       </c>
@@ -3024,14 +2450,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" ht="18.75" customHeight="1" spans="1:6">
+    <row r="45" spans="1:6" ht="18.75" customHeight="1">
       <c r="A45">
         <v>3574</v>
       </c>
       <c r="B45">
         <v>4150516</v>
       </c>
-      <c r="C45"/>
       <c r="D45">
         <v>379775256</v>
       </c>
@@ -3042,7 +2467,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" ht="18.75" customHeight="1" spans="1:6">
+    <row r="46" spans="1:6" ht="18.75" customHeight="1">
       <c r="A46">
         <v>9906</v>
       </c>
@@ -3064,6 +2489,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>